--- a/data/long_bre/P23_8-Urba-long_bre.xlsx
+++ b/data/long_bre/P23_8-Urba-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,41</t>
+          <t>-8,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-34,22%</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-35,83%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16,88%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-3,51%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,61; -2,23</t>
+          <t>-16,49; -2,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 6,28</t>
+          <t>-2,14; 6,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-54,74; -10,58</t>
+          <t>-5,3; 7,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 72,78</t>
+          <t>-7,42; 5,99</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-54,79; -13,57</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-15,31; 68,68</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-25,13; 48,05</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-29,34; 34,67</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,23%</t>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-1,85%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-4,29%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6,02%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 10,9</t>
+          <t>-3,7; 11,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 5,47</t>
+          <t>-7,43; 5,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 19,6</t>
+          <t>-11,48; 4,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 8,54</t>
+          <t>-4,29; 13,02</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 20,0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-10,28; 8,99</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-16,99; 8,43</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-7,19; 26,99</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>38,4%</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,1%</t>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>40,69%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-3,48%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10,82%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-10,52%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 9,43</t>
+          <t>0,69; 10,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 4,78</t>
+          <t>-8,49; 4,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 82,76</t>
+          <t>-4,11; 8,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-33,36; 30,98</t>
+          <t>-10,09; 3,72</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 91,06</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-33,87; 26,81</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-18,76; 51,05</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-36,16; 20,17</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 7,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 5,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 42,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,21; 38,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,11%</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>-3,59</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,26%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-3,57%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-16,34%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 6,85</t>
+          <t>-6,31; 8,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 8,19</t>
+          <t>-7,4; 5,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 12,48</t>
+          <t>-4,9; 6,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 13,49</t>
+          <t>-14,35; 8,94</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-24,9; 45,6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-34,4; 37,5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-24,82; 52,24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-52,74; 56,73</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,47%</t>
+          <t>-6,35</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-4,04%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-2,09%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-10,47%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 7,82</t>
+          <t>-10,45; 6,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 4,54</t>
+          <t>-6,48; 8,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 56,98</t>
+          <t>-9,81; 8,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 31,81</t>
+          <t>-23,42; 8,48</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-16,07; 10,82</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-9,25; 13,03</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-14,91; 14,61</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-34,41; 16,31</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,33</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,44%</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-39,22%</t>
+          <t>9,94</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10,2%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,29%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>57,24%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 10,79</t>
+          <t>-5,46; 7,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 1,63</t>
+          <t>-5,52; 5,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-54,67; 64,8</t>
+          <t>-8,91; 7,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-71,1; 14,04</t>
+          <t>-2,14; 23,55</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-25,89; 55,95</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-29,2; 41,61</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-30,01; 40,02</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; 206,17</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 27,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 23,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 60,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 51,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-7,03</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>-9,07</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-37,99%</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-13,54%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-10,79%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-41,22%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>12,63%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 3,61</t>
+          <t>-15,4; 10,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 8,61</t>
+          <t>-22,4; 2,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-79,68; 36,6</t>
+          <t>-11,39; 15,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-49,99; 58,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-51,29; 68,68</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-72,54; 25,41</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-48,2; 216,18</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>12,49</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>11,12</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-18,9%</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>22,62%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>19,74%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9,56%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 0,18</t>
+          <t>-4,16; 29,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 3,24</t>
+          <t>-3,63; 24,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 0,93</t>
+          <t>-14,66; 26,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 26,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-6,43; 67,23</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-5,31; 52,73</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-23,05; 74,99</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-9,92</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>-6,76</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-47,16%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-9,43%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-19,68%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 7,79</t>
+          <t>-32,94; 2,49</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 5,64</t>
+          <t>-14,5; 7,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 13,51</t>
+          <t>-33,19; 10,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 8,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-85,0; 24,2</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-49,85; 49,58</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-65,42; 45,43</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-6,64%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1732,449 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 6,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 2,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 44,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 14,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-4,34</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-18,63%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-2,82%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>6,68%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-6,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-9,07; 0,51</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 3,12</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 5,03</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-7,3; 4,13</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-34,38; 2,54</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-22,91; 24,92</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-17,85; 35,05</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-28,93; 22,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-1,91%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 6,92</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 5,72</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-6,73; 4,88</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 8,18</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-5,16; 12,19</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-4,98; 8,92</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-10,66; 8,64</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-10,57; 15,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,29</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-2,85%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 6,34</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 3,05</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-5,37; 5,22</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 6,39</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-9,93; 47,63</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-23,68; 18,42</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-20,39; 26,71</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-23,12; 33,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P23_8-Urba-long_bre.xlsx
+++ b/data/long_bre/P23_8-Urba-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -720,7 +720,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -816,7 +816,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1012,7 +1012,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1108,7 +1108,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1292,7 +1292,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1376,7 +1376,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1560,7 +1560,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1656,7 +1656,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
